--- a/Generated_data/generated_fake_people.xlsx
+++ b/Generated_data/generated_fake_people.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onwelosa-my.sharepoint.com/personal/kacper_bukowski_onwelo_com/Documents/Dokumenty/UiPath/Selectors/Generated_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_B67DC07FC9FDA45B5C46E195CB5C46806A09EACC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EF174AE-EC40-40DC-9985-F0C35887A1EA}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_B67DC07FC9FDA45B5C46E195CB5C46806A09EACC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{690148A3-C955-4C93-A579-B8C4C67FA4D8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Name</t>
   </si>
@@ -45,267 +45,484 @@
     <t>text</t>
   </si>
   <si>
-    <t>Pamela R. Nunley</t>
-  </si>
-  <si>
-    <t>401-858-8496</t>
-  </si>
-  <si>
-    <t>October 3, 1973</t>
-  </si>
-  <si>
-    <t>MichaelDSabo@teleworm.us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                        4761 Bond StreetProvidence, RI 02908                                        </t>
-  </si>
-  <si>
-    <t>Michael A. Brooks</t>
-  </si>
-  <si>
-    <t>212-372-7306</t>
-  </si>
-  <si>
-    <t>April 8, 1958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                        4068 Farnum RoadNew York, NY 10007                                        </t>
-  </si>
-  <si>
-    <t>Roberta R. Addis</t>
-  </si>
-  <si>
-    <t>214-226-5771</t>
-  </si>
-  <si>
-    <t>July 28, 1973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                        3418 Fancher DriveDallas, TX 75212                                        </t>
-  </si>
-  <si>
-    <t>Charles S. Robertson</t>
-  </si>
-  <si>
-    <t>941-727-7302</t>
-  </si>
-  <si>
-    <t>December 2, 1968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                        1698 Monroe AvenueBradenton, FL 34207                                        </t>
-  </si>
-  <si>
-    <t>Debbie E. Rohe</t>
-  </si>
-  <si>
-    <t>512-762-6473</t>
-  </si>
-  <si>
-    <t>August 1, 1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                        1444 Brentwood DriveAustin, TX 78758                                        </t>
-  </si>
-  <si>
-    <t>Arthur C. Jennings</t>
-  </si>
-  <si>
-    <t>630-306-2767</t>
-  </si>
-  <si>
-    <t>May 9, 1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                        934 Fraggle DriveSchaumburg, IL 60173                                        </t>
-  </si>
-  <si>
-    <t>Tiffany P. Steele</t>
-  </si>
-  <si>
-    <t>816-294-6396</t>
-  </si>
-  <si>
-    <t>April 16, 1949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                        1605 Nutter StreetSaint Joseph, MO 64501                                        </t>
-  </si>
-  <si>
-    <t>Steven M. Morton</t>
-  </si>
-  <si>
-    <t>509-936-6663</t>
-  </si>
-  <si>
-    <t>December 20, 1984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                        2059 Melrose StreetChewelah, WA 99109                                        </t>
-  </si>
-  <si>
-    <t>Adam P. Latham</t>
-  </si>
-  <si>
-    <t>513-248-1714</t>
-  </si>
-  <si>
-    <t>May 24, 1951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                        188 Walnut Hill DriveMilford, OH 45150                                        </t>
-  </si>
-  <si>
-    <t>Kenneth D. Watts</t>
-  </si>
-  <si>
-    <t>360-857-7979</t>
-  </si>
-  <si>
-    <t>December 20, 1955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                        2384 Pratt AvenuePortland, WA 97205                                        </t>
-  </si>
-  <si>
-    <t>Christopher J. Reidy</t>
-  </si>
-  <si>
-    <t>508-239-9955</t>
-  </si>
-  <si>
-    <t>March 26, 1965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                        4490 Stadium DriveFramingham, MA 01702                                        </t>
-  </si>
-  <si>
-    <t>Richard R. Harder</t>
-  </si>
-  <si>
-    <t>660-233-5001</t>
-  </si>
-  <si>
-    <t>March 25, 1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                        874 Fairmont AvenueKansas City, MO 64108                                        </t>
-  </si>
-  <si>
-    <t>Eric E. Davenport</t>
-  </si>
-  <si>
-    <t>520-434-7366</t>
-  </si>
-  <si>
-    <t>July 26, 1942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                        21 Parkway DriveTucson, AZ 85706                                        </t>
-  </si>
-  <si>
-    <t>Jonathan S. Gratton</t>
-  </si>
-  <si>
-    <t>570-771-1764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                        2802 Simons Hollow RoadPittston, PA 18640                                        </t>
-  </si>
-  <si>
-    <t>Gregory I. Wagner</t>
-  </si>
-  <si>
-    <t>773-582-7362</t>
-  </si>
-  <si>
-    <t>November 29, 1938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                        3706 Virginia StreetChicago, IL 60629                                        </t>
-  </si>
-  <si>
-    <t>Antonia F. Palacios</t>
-  </si>
-  <si>
-    <t>518-249-4492</t>
-  </si>
-  <si>
-    <t>January 1, 1953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                        2803 Ben StreetAlbany, NY 12207                                        </t>
-  </si>
-  <si>
-    <t>Wanda C. Cooper</t>
-  </si>
-  <si>
-    <t>703-286-6638</t>
-  </si>
-  <si>
-    <t>December 22, 1962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                        1495 Lawman AvenueWashington, VA 20011                                        </t>
-  </si>
-  <si>
-    <t>Gretchen B. Royal</t>
-  </si>
-  <si>
-    <t>760-602-0905</t>
-  </si>
-  <si>
-    <t>July 12, 1955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                        2962 Vernon StreetCarlsbad, CA 92009                                        </t>
-  </si>
-  <si>
-    <t>Stefanie M. Boston</t>
-  </si>
-  <si>
-    <t>863-562-7313</t>
-  </si>
-  <si>
-    <t>October 20, 1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                        1551 Oakdale AvenueTampa, FL 33607                                        </t>
-  </si>
-  <si>
-    <t>Gregory A. McMillan</t>
-  </si>
-  <si>
-    <t>404-210-6529</t>
-  </si>
-  <si>
-    <t>June 7, 1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                        4895 Post Farm RoadDuluth, GA 30097                                        </t>
-  </si>
-  <si>
-    <t>`</t>
+    <t>Constance I. Lee</t>
+  </si>
+  <si>
+    <t>267-590-1334</t>
+  </si>
+  <si>
+    <t>August 27, 1993</t>
+  </si>
+  <si>
+    <t>ConstanceILee@jourrapide.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        3473 Spring AvenuePhiladelphia, PA 19103                                        </t>
+  </si>
+  <si>
+    <t>Byron A. Henry</t>
+  </si>
+  <si>
+    <t>305-507-0207</t>
+  </si>
+  <si>
+    <t>August 15, 1977</t>
+  </si>
+  <si>
+    <t>ByronAHenry@rhyta.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        1819 Poplar LaneMiami, FL 33131                                        </t>
+  </si>
+  <si>
+    <t>Carolyn D. Shelton</t>
+  </si>
+  <si>
+    <t>949-637-9511</t>
+  </si>
+  <si>
+    <t>January 31, 1941</t>
+  </si>
+  <si>
+    <t>CarolynDShelton@jourrapide.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        780 Elk StreetAnaheim, CA 92801                                        </t>
+  </si>
+  <si>
+    <t>Margaret J. James</t>
+  </si>
+  <si>
+    <t>216-407-2678</t>
+  </si>
+  <si>
+    <t>February 19, 1997</t>
+  </si>
+  <si>
+    <t>MargaretJJames@armyspy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        2445 Peaceful LaneGarfield Heights, OH 44125                                        </t>
+  </si>
+  <si>
+    <t>Billie E. Stanton</t>
+  </si>
+  <si>
+    <t>410-237-9400</t>
+  </si>
+  <si>
+    <t>August 19, 1989</t>
+  </si>
+  <si>
+    <t>BillieEStanton@rhyta.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        2312 Hamilton DriveBaltimore, MD 21202                                        </t>
+  </si>
+  <si>
+    <t>Janie R. Weiss</t>
+  </si>
+  <si>
+    <t>347-222-3371</t>
+  </si>
+  <si>
+    <t>March 14, 1954</t>
+  </si>
+  <si>
+    <t>JanieRWeiss@dayrep.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        2674 My DriveNew York, NY 10001                                        </t>
+  </si>
+  <si>
+    <t>Sandra A. Hazard</t>
+  </si>
+  <si>
+    <t>623-518-1809</t>
+  </si>
+  <si>
+    <t>March 27, 1992</t>
+  </si>
+  <si>
+    <t>SandraAHazard@armyspy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        2222 Cambridge DrivePhoenix, AZ 85003                                        </t>
+  </si>
+  <si>
+    <t>Joseph B. Adkins</t>
+  </si>
+  <si>
+    <t>214-644-2196</t>
+  </si>
+  <si>
+    <t>October 21, 1986</t>
+  </si>
+  <si>
+    <t>JosephBAdkins@armyspy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        1702 Romines Mill RoadDallas, TX 75207                                        </t>
+  </si>
+  <si>
+    <t>Janet W. Bane</t>
+  </si>
+  <si>
+    <t>706-685-3647</t>
+  </si>
+  <si>
+    <t>June 11, 1943</t>
+  </si>
+  <si>
+    <t>JanetWBane@jourrapide.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        3408 Radio Park DriveColumbus, GA 31903                                        </t>
+  </si>
+  <si>
+    <t>Thelma R. McCurry</t>
+  </si>
+  <si>
+    <t>256-264-6929</t>
+  </si>
+  <si>
+    <t>July 28, 1998</t>
+  </si>
+  <si>
+    <t>ThelmaRMcCurry@armyspy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        3470 Ritter StreetAlbertville, AL 35950                                        </t>
+  </si>
+  <si>
+    <t>Estelle J. Williams</t>
+  </si>
+  <si>
+    <t>860-417-3238</t>
+  </si>
+  <si>
+    <t>May 14, 1985</t>
+  </si>
+  <si>
+    <t>EstelleJWilliams@dayrep.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        1927 Lochmere LaneHartford, CT 06103                                        </t>
+  </si>
+  <si>
+    <t>Theron J. Henderson</t>
+  </si>
+  <si>
+    <t>914-249-3670</t>
+  </si>
+  <si>
+    <t>February 12, 1968</t>
+  </si>
+  <si>
+    <t>TheronJHenderson@dayrep.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        1856 Lake Forest DriveHarrison, NY 10528                                        </t>
+  </si>
+  <si>
+    <t>James S. Franklin</t>
+  </si>
+  <si>
+    <t>207-769-8872</t>
+  </si>
+  <si>
+    <t>June 13, 1990</t>
+  </si>
+  <si>
+    <t>JamesSFranklin@jourrapide.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        619 Fantages WayPresque Isle, ME 04769                                        </t>
+  </si>
+  <si>
+    <t>Gary A. Snowden</t>
+  </si>
+  <si>
+    <t>210-752-7703</t>
+  </si>
+  <si>
+    <t>September 16, 1986</t>
+  </si>
+  <si>
+    <t>GaryASnowden@jourrapide.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        3021 Cinnamon LaneSan Antonio, TX 78205                                        </t>
+  </si>
+  <si>
+    <t>Heather C. Richardson</t>
+  </si>
+  <si>
+    <t>312-421-6171</t>
+  </si>
+  <si>
+    <t>July 19, 1972</t>
+  </si>
+  <si>
+    <t>HeatherCRichardson@armyspy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        2218 Pringle DriveChicago, IL 60607                                        </t>
+  </si>
+  <si>
+    <t>Fred E. Brown</t>
+  </si>
+  <si>
+    <t>770-559-0583</t>
+  </si>
+  <si>
+    <t>September 19, 1979</t>
+  </si>
+  <si>
+    <t>FredEBrown@rhyta.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        4818 Lakeland Park DriveAtlanta, GA 30339                                        </t>
+  </si>
+  <si>
+    <t>Paul G. Thompson</t>
+  </si>
+  <si>
+    <t>706-886-5555</t>
+  </si>
+  <si>
+    <t>July 7, 1959</t>
+  </si>
+  <si>
+    <t>PaulGThompson@jourrapide.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        3005 Hillview DriveToccoa, GA 30577                                        </t>
+  </si>
+  <si>
+    <t>Doris B. Taylor</t>
+  </si>
+  <si>
+    <t>208-935-3538</t>
+  </si>
+  <si>
+    <t>July 7, 1944</t>
+  </si>
+  <si>
+    <t>DorisBTaylor@armyspy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        4415 Maple AvenueKamiah, ID 83536                                        </t>
+  </si>
+  <si>
+    <t>Jared W. Sandlin</t>
+  </si>
+  <si>
+    <t>870-325-9942</t>
+  </si>
+  <si>
+    <t>March 28, 1955</t>
+  </si>
+  <si>
+    <t>JaredWSandlin@armyspy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        1786 Fittro StreetRison, AR 71665                                        </t>
+  </si>
+  <si>
+    <t>Michael J. Rounds</t>
+  </si>
+  <si>
+    <t>912-375-7558</t>
+  </si>
+  <si>
+    <t>July 3, 1980</t>
+  </si>
+  <si>
+    <t>MichaelJRounds@armyspy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        4795 Austin AvenueHazlehurst, GA 31539                                        </t>
+  </si>
+  <si>
+    <t>Kelly P. Stott</t>
+  </si>
+  <si>
+    <t>910-398-8418</t>
+  </si>
+  <si>
+    <t>November 16, 1957</t>
+  </si>
+  <si>
+    <t>KellyPStott@jourrapide.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        2454 Twin Willow LaneWilmington, NC 28405                                        </t>
+  </si>
+  <si>
+    <t>Kenneth J. Wilke</t>
+  </si>
+  <si>
+    <t>712-370-3356</t>
+  </si>
+  <si>
+    <t>November 26, 1961</t>
+  </si>
+  <si>
+    <t>KennethJWilke@teleworm.us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        891 Ashwood DriveRed Oak, IA 51566                                        </t>
+  </si>
+  <si>
+    <t>Alayna D. O'Connor</t>
+  </si>
+  <si>
+    <t>425-276-4185</t>
+  </si>
+  <si>
+    <t>June 4, 1944</t>
+  </si>
+  <si>
+    <t>AlaynaDOConnor@teleworm.us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        155 Ryder AvenueSeattle, WA 98109                                        </t>
+  </si>
+  <si>
+    <t>Joanne R. Carlson</t>
+  </si>
+  <si>
+    <t>949-552-4296</t>
+  </si>
+  <si>
+    <t>July 3, 1961</t>
+  </si>
+  <si>
+    <t>JoanneRCarlson@rhyta.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        1276 Peck CourtIrvine, CA 92714                                        </t>
+  </si>
+  <si>
+    <t>Michael A. Teneyck</t>
+  </si>
+  <si>
+    <t>662-714-3372</t>
+  </si>
+  <si>
+    <t>January 25, 1978</t>
+  </si>
+  <si>
+    <t>MichaelATeneyck@armyspy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        4251 Rafe LaneGreenwood, MS 38930                                        </t>
+  </si>
+  <si>
+    <t>Rosalie C. Frost</t>
+  </si>
+  <si>
+    <t>619-557-1732</t>
+  </si>
+  <si>
+    <t>October 29, 1951</t>
+  </si>
+  <si>
+    <t>RosalieCFrost@rhyta.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        3455 Poplar AvenueSan Diego, CA 92101                                        </t>
+  </si>
+  <si>
+    <t>Antonia C. Noel</t>
+  </si>
+  <si>
+    <t>979-260-0157</t>
+  </si>
+  <si>
+    <t>September 30, 1968</t>
+  </si>
+  <si>
+    <t>AntoniaCNoel@dayrep.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        112 Fannie StreetCollege Station, TX 77840                                        </t>
+  </si>
+  <si>
+    <t>Tina C. Ardoin</t>
+  </si>
+  <si>
+    <t>480-818-3396</t>
+  </si>
+  <si>
+    <t>May 18, 1962</t>
+  </si>
+  <si>
+    <t>TinaCArdoin@jourrapide.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        2497 Dye StreetPhoenix, AZ 85034                                        </t>
+  </si>
+  <si>
+    <t>Ethel L. Garza</t>
+  </si>
+  <si>
+    <t>864-410-8591</t>
+  </si>
+  <si>
+    <t>April 25, 1997</t>
+  </si>
+  <si>
+    <t>EthelLGarza@jourrapide.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        2911 Deer Haven DriveGreenville, SC 29607                                        </t>
+  </si>
+  <si>
+    <t>Dorothy T. Jacobs</t>
+  </si>
+  <si>
+    <t>715-637-0502</t>
+  </si>
+  <si>
+    <t>April 14, 1976</t>
+  </si>
+  <si>
+    <t>DorothyTJacobs@rhyta.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                        3246 Mercer StreetBarron, WI 54812                                        </t>
   </si>
 </sst>
 </file>
@@ -624,15 +841,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" style="1" customWidth="1"/>
@@ -690,316 +907,486 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
